--- a/Data_Input/tuik.xlsx
+++ b/Data_Input/tuik.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tuik_sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tuik_NEW_sheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,10 +17,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -37,12 +45,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -56,14 +79,17 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -358,6 +384,507 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>YEAR</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 5</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>-1.94</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-1.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>-1.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-2.19</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-4.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-3.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-2.32</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-1.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>-1.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-0.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-2.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-2.58</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-4.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-3.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-8.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-3.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-34.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-0.91</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-8.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-3.03</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-4.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-8.04</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>-3.81</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>-1.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-2.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>-1.31</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>-1.67</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>-0.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-3.69</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>-5.92</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>-8.74</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>-0.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>-5.68</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>-42.19</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -367,170 +894,170 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Percentage</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5665890226657664</v>
+        <v>0.9608836477556634</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.645593073542774</v>
+        <v>0.08089978922428198</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7365912117889909</v>
+        <v>0.5117270328069564</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2411142459981679</v>
+        <v>0.9976508456111384</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4070796514400729</v>
+        <v>0.09810137793856255</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4406331316408056</v>
+        <v>0.1353083697306641</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8185161820830708</v>
+        <v>0.9601632435396402</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="2" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8303847624700845</v>
+        <v>0.07651606777120801</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="2" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3732534928069466</v>
+        <v>0.2517726255470769</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="2" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2080757084991667</v>
+        <v>0.01058961052879459</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="2" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8729505795843635</v>
+        <v>0.8369175569075996</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="2" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3845749106941811</v>
+        <v>0.7201215844454626</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="2" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7653477185806851</v>
+        <v>0.3820230401469676</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="2" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4021728603278079</v>
+        <v>0.9488787412917865</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="2" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4500834225532225</v>
+        <v>0.3025627004454848</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="2" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6046814221875282</v>
+        <v>0.2411855890655527</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="2" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1811558139896624</v>
+        <v>0.4062231816315469</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="2" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6889879243709333</v>
+        <v>0.03225066196660176</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="2" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6349739378459192</v>
+        <v>0.1207774802888374</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="2" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9107690746122696</v>
+        <v>0.6966794147573386</v>
       </c>
     </row>
   </sheetData>

--- a/Data_Input/tuik.xlsx
+++ b/Data_Input/tuik.xlsx
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9608836477556634</v>
+        <v>0.1010922109664527</v>
       </c>
     </row>
     <row r="3">
@@ -913,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.08089978922428198</v>
+        <v>0.4036768667260755</v>
       </c>
     </row>
     <row r="4">
@@ -921,7 +921,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5117270328069564</v>
+        <v>0.3124015692241968</v>
       </c>
     </row>
     <row r="5">
@@ -929,7 +929,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9976508456111384</v>
+        <v>0.5176758452727481</v>
       </c>
     </row>
     <row r="6">
@@ -937,7 +937,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.09810137793856255</v>
+        <v>0.7852189442385159</v>
       </c>
     </row>
     <row r="7">
@@ -945,7 +945,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1353083697306641</v>
+        <v>0.9001508035243703</v>
       </c>
     </row>
     <row r="8">
@@ -953,7 +953,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9601632435396402</v>
+        <v>0.4687742058862057</v>
       </c>
     </row>
     <row r="9">
@@ -961,7 +961,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.07651606777120801</v>
+        <v>0.8623068695756443</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2517726255470769</v>
+        <v>0.5636134115225118</v>
       </c>
     </row>
     <row r="11">
@@ -977,7 +977,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01058961052879459</v>
+        <v>0.8261338705044763</v>
       </c>
     </row>
     <row r="12">
@@ -985,7 +985,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8369175569075996</v>
+        <v>0.8034342397743505</v>
       </c>
     </row>
     <row r="13">
@@ -993,7 +993,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7201215844454626</v>
+        <v>0.06803771187743801</v>
       </c>
     </row>
     <row r="14">
@@ -1001,7 +1001,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.3820230401469676</v>
+        <v>0.8120509398701782</v>
       </c>
     </row>
     <row r="15">
@@ -1009,7 +1009,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9488787412917865</v>
+        <v>0.60456952196462</v>
       </c>
     </row>
     <row r="16">
@@ -1017,7 +1017,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3025627004454848</v>
+        <v>0.424550448021517</v>
       </c>
     </row>
     <row r="17">
@@ -1025,7 +1025,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2411855890655527</v>
+        <v>0.9661676669721048</v>
       </c>
     </row>
     <row r="18">
@@ -1033,7 +1033,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4062231816315469</v>
+        <v>0.5704802069751627</v>
       </c>
     </row>
     <row r="19">
@@ -1041,7 +1041,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03225066196660176</v>
+        <v>0.3354674698398675</v>
       </c>
     </row>
     <row r="20">
@@ -1049,7 +1049,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1207774802888374</v>
+        <v>0.01920962062109355</v>
       </c>
     </row>
     <row r="21">
@@ -1057,7 +1057,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6966794147573386</v>
+        <v>0.6121649442085135</v>
       </c>
     </row>
   </sheetData>
